--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fgf7-Fgfr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fgf7-Fgfr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>Fgf7</t>
+  </si>
+  <si>
+    <t>Fgfr1</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Fgf7</t>
-  </si>
-  <si>
-    <t>Fgfr1</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>18.32032066666666</v>
+        <v>0.025512</v>
       </c>
       <c r="H2">
-        <v>54.96096199999999</v>
+        <v>0.07653600000000001</v>
       </c>
       <c r="I2">
-        <v>0.9393883922888365</v>
+        <v>0.001390615539972402</v>
       </c>
       <c r="J2">
-        <v>0.9570930138987986</v>
+        <v>0.001390615539972402</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.743825</v>
+        <v>5.978421000000001</v>
       </c>
       <c r="N2">
-        <v>20.231475</v>
+        <v>17.935263</v>
       </c>
       <c r="O2">
-        <v>0.06175298453338176</v>
+        <v>0.05704457007880161</v>
       </c>
       <c r="P2">
-        <v>0.06809253940846915</v>
+        <v>0.06242884486533885</v>
       </c>
       <c r="Q2">
-        <v>123.5490365198833</v>
+        <v>0.152521476552</v>
       </c>
       <c r="R2">
-        <v>1111.94132867895</v>
+        <v>1.372693288968</v>
       </c>
       <c r="S2">
-        <v>0.05801003685985088</v>
+        <v>7.932706562262624E-05</v>
       </c>
       <c r="T2">
-        <v>0.06517089376647446</v>
+        <v>8.681452181226652E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>18.32032066666666</v>
+        <v>0.025512</v>
       </c>
       <c r="H3">
-        <v>54.96096199999999</v>
+        <v>0.07653600000000001</v>
       </c>
       <c r="I3">
-        <v>0.9393883922888365</v>
+        <v>0.001390615539972402</v>
       </c>
       <c r="J3">
-        <v>0.9570930138987986</v>
+        <v>0.001390615539972402</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>208.973595</v>
       </c>
       <c r="O3">
-        <v>0.6378547871531949</v>
+        <v>0.6646576013185088</v>
       </c>
       <c r="P3">
-        <v>0.7033368922862506</v>
+        <v>0.7273927426214574</v>
       </c>
       <c r="Q3">
-        <v>1276.154423755376</v>
+        <v>1.77711145188</v>
       </c>
       <c r="R3">
-        <v>11485.38981379839</v>
+        <v>15.99400306692</v>
       </c>
       <c r="S3">
-        <v>0.5991933830175777</v>
+        <v>0.0009242831891542998</v>
       </c>
       <c r="T3">
-        <v>0.6731588260244623</v>
+        <v>0.001011523651552545</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>18.32032066666666</v>
+        <v>0.025512</v>
       </c>
       <c r="H4">
-        <v>54.96096199999999</v>
+        <v>0.07653600000000001</v>
       </c>
       <c r="I4">
-        <v>0.9393883922888365</v>
+        <v>0.001390615539972402</v>
       </c>
       <c r="J4">
-        <v>0.9570930138987986</v>
+        <v>0.001390615539972402</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.263827666666667</v>
+        <v>1.290243</v>
       </c>
       <c r="N4">
-        <v>3.791482999999999</v>
+        <v>3.870729</v>
       </c>
       <c r="O4">
-        <v>0.01157282852869501</v>
+        <v>0.01231116999491725</v>
       </c>
       <c r="P4">
-        <v>0.01276089388411081</v>
+        <v>0.01347318632889677</v>
       </c>
       <c r="Q4">
-        <v>23.15372812073844</v>
+        <v>0.032916679416</v>
       </c>
       <c r="R4">
-        <v>208.3835530866459</v>
+        <v>0.296250114744</v>
       </c>
       <c r="S4">
-        <v>0.01087138078580518</v>
+        <v>1.712010431017389E-05</v>
       </c>
       <c r="T4">
-        <v>0.01221336238758636</v>
+        <v>1.873602228190758E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>18.32032066666666</v>
+        <v>0.025512</v>
       </c>
       <c r="H5">
-        <v>54.96096199999999</v>
+        <v>0.07653600000000001</v>
       </c>
       <c r="I5">
-        <v>0.9393883922888365</v>
+        <v>0.001390615539972402</v>
       </c>
       <c r="J5">
-        <v>0.9570930138987986</v>
+        <v>0.001390615539972402</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>30.502036</v>
+        <v>27.1166075</v>
       </c>
       <c r="N5">
-        <v>61.004072</v>
+        <v>54.233215</v>
       </c>
       <c r="O5">
-        <v>0.2793061441162328</v>
+        <v>0.2587397603536297</v>
       </c>
       <c r="P5">
-        <v>0.205319788929729</v>
+        <v>0.1887743138075849</v>
       </c>
       <c r="Q5">
-        <v>558.8070805062106</v>
+        <v>0.6917988905400001</v>
       </c>
       <c r="R5">
-        <v>3352.842483037264</v>
+        <v>4.15079334324</v>
       </c>
       <c r="S5">
-        <v>0.262376949677742</v>
+        <v>0.0003598075315564927</v>
       </c>
       <c r="T5">
-        <v>0.1965101355998195</v>
+        <v>0.0002625124943284544</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>18.32032066666666</v>
+        <v>0.025512</v>
       </c>
       <c r="H6">
-        <v>54.96096199999999</v>
+        <v>0.07653600000000001</v>
       </c>
       <c r="I6">
-        <v>0.9393883922888365</v>
+        <v>0.001390615539972402</v>
       </c>
       <c r="J6">
-        <v>0.9570930138987986</v>
+        <v>0.001390615539972402</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.038909</v>
+        <v>0.759494</v>
       </c>
       <c r="N6">
-        <v>3.116727</v>
+        <v>2.278482</v>
       </c>
       <c r="O6">
-        <v>0.009513255668495419</v>
+        <v>0.00724689825414258</v>
       </c>
       <c r="P6">
-        <v>0.01048988549144043</v>
+        <v>0.007930912376722157</v>
       </c>
       <c r="Q6">
-        <v>19.033146023486</v>
+        <v>0.019376210928</v>
       </c>
       <c r="R6">
-        <v>171.298314211374</v>
+        <v>0.174385898352</v>
       </c>
       <c r="S6">
-        <v>0.008936641947860572</v>
+        <v>1.007764932880954E-05</v>
       </c>
       <c r="T6">
-        <v>0.010039796120456</v>
+        <v>1.102884999722929E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,31 +835,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.082285</v>
+        <v>18.32032066666667</v>
       </c>
       <c r="H7">
-        <v>2.16457</v>
+        <v>54.960962</v>
       </c>
       <c r="I7">
-        <v>0.05549498748666318</v>
+        <v>0.9986093844600277</v>
       </c>
       <c r="J7">
-        <v>0.03769393310646423</v>
+        <v>0.9986093844600277</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.743825</v>
+        <v>5.978421000000001</v>
       </c>
       <c r="N7">
-        <v>20.231475</v>
+        <v>17.935263</v>
       </c>
       <c r="O7">
-        <v>0.06175298453338176</v>
+        <v>0.05704457007880161</v>
       </c>
       <c r="P7">
-        <v>0.06809253940846915</v>
+        <v>0.06242884486533885</v>
       </c>
       <c r="Q7">
-        <v>7.298740640125</v>
+        <v>109.526589800334</v>
       </c>
       <c r="R7">
-        <v>43.79244384075</v>
+        <v>985.7393082030062</v>
       </c>
       <c r="S7">
-        <v>0.003426981103944125</v>
+        <v>0.05696524301317898</v>
       </c>
       <c r="T7">
-        <v>0.002566675625512116</v>
+        <v>0.06234203034352658</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,31 +897,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.082285</v>
+        <v>18.32032066666667</v>
       </c>
       <c r="H8">
-        <v>2.16457</v>
+        <v>54.960962</v>
       </c>
       <c r="I8">
-        <v>0.05549498748666318</v>
+        <v>0.9986093844600277</v>
       </c>
       <c r="J8">
-        <v>0.03769393310646423</v>
+        <v>0.9986093844600277</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>208.973595</v>
       </c>
       <c r="O8">
-        <v>0.6378547871531949</v>
+        <v>0.6646576013185088</v>
       </c>
       <c r="P8">
-        <v>0.7033368922862506</v>
+        <v>0.7273927426214574</v>
       </c>
       <c r="Q8">
-        <v>75.389662421525</v>
+        <v>1276.154423755377</v>
       </c>
       <c r="R8">
-        <v>452.33797452915</v>
+        <v>11485.38981379839</v>
       </c>
       <c r="S8">
-        <v>0.03539774343137476</v>
+        <v>0.6637333181293545</v>
       </c>
       <c r="T8">
-        <v>0.02651153376914637</v>
+        <v>0.7263812189699049</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,31 +959,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.082285</v>
+        <v>18.32032066666667</v>
       </c>
       <c r="H9">
-        <v>2.16457</v>
+        <v>54.960962</v>
       </c>
       <c r="I9">
-        <v>0.05549498748666318</v>
+        <v>0.9986093844600277</v>
       </c>
       <c r="J9">
-        <v>0.03769393310646423</v>
+        <v>0.9986093844600277</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.263827666666667</v>
+        <v>1.290243</v>
       </c>
       <c r="N9">
-        <v>3.791482999999999</v>
+        <v>3.870729</v>
       </c>
       <c r="O9">
-        <v>0.01157282852869501</v>
+        <v>0.01231116999491725</v>
       </c>
       <c r="P9">
-        <v>0.01276089388411081</v>
+        <v>0.01347318632889677</v>
       </c>
       <c r="Q9">
-        <v>1.367821726218333</v>
+        <v>23.637665497922</v>
       </c>
       <c r="R9">
-        <v>8.206930357309998</v>
+        <v>212.738989481298</v>
       </c>
       <c r="S9">
-        <v>0.0006422339743852281</v>
+        <v>0.01229404989060708</v>
       </c>
       <c r="T9">
-        <v>0.0004810082804463615</v>
+        <v>0.01345445030661487</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,31 +1021,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.082285</v>
+        <v>18.32032066666667</v>
       </c>
       <c r="H10">
-        <v>2.16457</v>
+        <v>54.960962</v>
       </c>
       <c r="I10">
-        <v>0.05549498748666318</v>
+        <v>0.9986093844600277</v>
       </c>
       <c r="J10">
-        <v>0.03769393310646423</v>
+        <v>0.9986093844600277</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>30.502036</v>
+        <v>27.1166075</v>
       </c>
       <c r="N10">
-        <v>61.004072</v>
+        <v>54.233215</v>
       </c>
       <c r="O10">
-        <v>0.2793061441162328</v>
+        <v>0.2587397603536297</v>
       </c>
       <c r="P10">
-        <v>0.205319788929729</v>
+        <v>0.1887743138075849</v>
       </c>
       <c r="Q10">
-        <v>33.01189603226</v>
+        <v>496.7849447921384</v>
       </c>
       <c r="R10">
-        <v>132.04758412904</v>
+        <v>2980.70966875283</v>
       </c>
       <c r="S10">
-        <v>0.01550009097267848</v>
+        <v>0.2583799528220732</v>
       </c>
       <c r="T10">
-        <v>0.007739310389350561</v>
+        <v>0.1885118013132565</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,31 +1083,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.082285</v>
+        <v>18.32032066666667</v>
       </c>
       <c r="H11">
-        <v>2.16457</v>
+        <v>54.960962</v>
       </c>
       <c r="I11">
-        <v>0.05549498748666318</v>
+        <v>0.9986093844600277</v>
       </c>
       <c r="J11">
-        <v>0.03769393310646423</v>
+        <v>0.9986093844600277</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,338 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.038909</v>
+        <v>0.759494</v>
       </c>
       <c r="N11">
-        <v>3.116727</v>
+        <v>2.278482</v>
       </c>
       <c r="O11">
-        <v>0.009513255668495419</v>
+        <v>0.00724689825414258</v>
       </c>
       <c r="P11">
-        <v>0.01048988549144043</v>
+        <v>0.007930912376722157</v>
       </c>
       <c r="Q11">
-        <v>1.124395627065</v>
+        <v>13.91417362440933</v>
       </c>
       <c r="R11">
-        <v>6.746373762389999</v>
+        <v>125.227562619684</v>
       </c>
       <c r="S11">
-        <v>0.0005279380042805808</v>
+        <v>0.007236820604813771</v>
       </c>
       <c r="T11">
-        <v>0.0003954050420088253</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.09978633333333335</v>
-      </c>
-      <c r="H12">
-        <v>0.299359</v>
-      </c>
-      <c r="I12">
-        <v>0.005116620224500326</v>
-      </c>
-      <c r="J12">
-        <v>0.005213052994737074</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>6.743825</v>
-      </c>
-      <c r="N12">
-        <v>20.231475</v>
-      </c>
-      <c r="O12">
-        <v>0.06175298453338176</v>
-      </c>
-      <c r="P12">
-        <v>0.06809253940846915</v>
-      </c>
-      <c r="Q12">
-        <v>0.6729415693916668</v>
-      </c>
-      <c r="R12">
-        <v>6.056474124525001</v>
-      </c>
-      <c r="S12">
-        <v>0.0003159665695867569</v>
-      </c>
-      <c r="T12">
-        <v>0.0003549700164825724</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.09978633333333335</v>
-      </c>
-      <c r="H13">
-        <v>0.299359</v>
-      </c>
-      <c r="I13">
-        <v>0.005116620224500326</v>
-      </c>
-      <c r="J13">
-        <v>0.005213052994737074</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>69.657865</v>
-      </c>
-      <c r="N13">
-        <v>208.973595</v>
-      </c>
-      <c r="O13">
-        <v>0.6378547871531949</v>
-      </c>
-      <c r="P13">
-        <v>0.7033368922862506</v>
-      </c>
-      <c r="Q13">
-        <v>6.950902936178335</v>
-      </c>
-      <c r="R13">
-        <v>62.558126425605</v>
-      </c>
-      <c r="S13">
-        <v>0.003263660704242388</v>
-      </c>
-      <c r="T13">
-        <v>0.003666532492641906</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G14">
-        <v>0.09978633333333335</v>
-      </c>
-      <c r="H14">
-        <v>0.299359</v>
-      </c>
-      <c r="I14">
-        <v>0.005116620224500326</v>
-      </c>
-      <c r="J14">
-        <v>0.005213052994737074</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>1.263827666666667</v>
-      </c>
-      <c r="N14">
-        <v>3.791482999999999</v>
-      </c>
-      <c r="O14">
-        <v>0.01157282852869501</v>
-      </c>
-      <c r="P14">
-        <v>0.01276089388411081</v>
-      </c>
-      <c r="Q14">
-        <v>0.1261127288218889</v>
-      </c>
-      <c r="R14">
-        <v>1.135014559397</v>
-      </c>
-      <c r="S14">
-        <v>5.921376850459523E-05</v>
-      </c>
-      <c r="T14">
-        <v>6.652321607808588E-05</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G15">
-        <v>0.09978633333333335</v>
-      </c>
-      <c r="H15">
-        <v>0.299359</v>
-      </c>
-      <c r="I15">
-        <v>0.005116620224500326</v>
-      </c>
-      <c r="J15">
-        <v>0.005213052994737074</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>30.502036</v>
-      </c>
-      <c r="N15">
-        <v>61.004072</v>
-      </c>
-      <c r="O15">
-        <v>0.2793061441162328</v>
-      </c>
-      <c r="P15">
-        <v>0.205319788929729</v>
-      </c>
-      <c r="Q15">
-        <v>3.043686331641334</v>
-      </c>
-      <c r="R15">
-        <v>18.262117989848</v>
-      </c>
-      <c r="S15">
-        <v>0.001429103465812319</v>
-      </c>
-      <c r="T15">
-        <v>0.001070342940558908</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G16">
-        <v>0.09978633333333335</v>
-      </c>
-      <c r="H16">
-        <v>0.299359</v>
-      </c>
-      <c r="I16">
-        <v>0.005116620224500326</v>
-      </c>
-      <c r="J16">
-        <v>0.005213052994737074</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>1.038909</v>
-      </c>
-      <c r="N16">
-        <v>3.116727</v>
-      </c>
-      <c r="O16">
-        <v>0.009513255668495419</v>
-      </c>
-      <c r="P16">
-        <v>0.01048988549144043</v>
-      </c>
-      <c r="Q16">
-        <v>0.103668919777</v>
-      </c>
-      <c r="R16">
-        <v>0.9330202779930001</v>
-      </c>
-      <c r="S16">
-        <v>4.867571635426603E-05</v>
-      </c>
-      <c r="T16">
-        <v>5.468432897560253E-05</v>
+        <v>0.007919883526724928</v>
       </c>
     </row>
   </sheetData>
